--- a/test.xlsx
+++ b/test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13D304B-10A8-4AFC-BA7D-076245DA030A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -71,6 +72,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -119,7 +123,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -152,9 +156,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,6 +208,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -362,11 +400,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,16 +422,17 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -401,11 +440,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -413,5 +453,6 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13D304B-10A8-4AFC-BA7D-076245DA030A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1661ABE4-DED7-492F-B837-75415054E672}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>name</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>rudres</t>
+  </si>
+  <si>
+    <t>nisha</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,6 +426,14 @@
       </c>
       <c r="B2">
         <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1661ABE4-DED7-492F-B837-75415054E672}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65500309-3526-470A-A301-4E883DE82F40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>nisha</t>
+  </si>
+  <si>
+    <t>hgjkhk</t>
+  </si>
+  <si>
+    <t>gffgh</t>
+  </si>
+  <si>
+    <t>65h889</t>
   </si>
 </sst>
 </file>
@@ -404,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,6 +443,22 @@
       </c>
       <c r="B3">
         <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>778</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65500309-3526-470A-A301-4E883DE82F40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -39,12 +38,15 @@
   <si>
     <t>65h889</t>
   </si>
+  <si>
+    <t xml:space="preserve">dumbi </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,7 +137,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,27 +169,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,24 +203,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,16 +378,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -437,7 +403,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -445,7 +411,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -453,12 +419,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <v>778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -468,12 +442,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -481,12 +455,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65500309-3526-470A-A301-4E883DE82F40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E90F4C-B7DF-44B6-865F-FDBE351D8168}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>65h889</t>
+  </si>
+  <si>
+    <t>djfkad</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,6 +462,14 @@
       </c>
       <c r="B5">
         <v>778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>98283</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t xml:space="preserve">dumbi </t>
+  </si>
+  <si>
+    <t>djfkad</t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -429,9 +432,17 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>98283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>1</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B788A9C4-C26E-45A3-BAAF-CDF872EEFFCA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>name</t>
   </si>
@@ -24,32 +25,17 @@
     <t>age</t>
   </si>
   <si>
-    <t>rudres</t>
+    <t>new</t>
   </si>
   <si>
-    <t>nisha</t>
-  </si>
-  <si>
-    <t>hgjkhk</t>
-  </si>
-  <si>
-    <t>gffgh</t>
-  </si>
-  <si>
-    <t>65h889</t>
-  </si>
-  <si>
-    <t>djfkad</t>
-  </si>
-  <si>
-    <t>dumbi</t>
+    <t>new2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,7 +126,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -172,9 +158,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,6 +210,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -381,16 +403,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,52 +420,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>88</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>98283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -453,12 +443,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -466,12 +456,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -39,10 +39,10 @@
     <t>65h889</t>
   </si>
   <si>
-    <t xml:space="preserve">dumbi </t>
-  </si>
-  <si>
     <t>djfkad</t>
+  </si>
+  <si>
+    <t>Yuktha</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -432,7 +432,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>98283</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
